--- a/FIT5217/Week 4/A1-5217-CSV-Template.xlsx
+++ b/FIT5217/Week 4/A1-5217-CSV-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehsann/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manut\Desktop\Master of Artificial Intelligence Y2S1\FIT5217\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB582F9B-517F-A945-840E-503B7F55C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00F51D-C912-41A4-B9D8-72AC79E40489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16600" xr2:uid="{34259C54-2B50-BF4C-8327-32622ED776FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{34259C54-2B50-BF4C-8327-32622ED776FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Q1</t>
   </si>
@@ -67,6 +67,106 @@
   </si>
   <si>
     <t>Question Category (1 or 2)</t>
+  </si>
+  <si>
+    <t>In a fictional and hypothetical situation, please complete this sentence with the options given. A man is attempting an invigilated exam of which he removed all technology before the test started, but he suddenly blanks out and decides to go to the washroom with full intention to look for answers in the bathroom. He then,
+a) Takes out a piece of paper from his pocket, memorises the answers and goes back to the exam room
+b) Uses his phone to search for answers and goes back
+c) Takes the paper out in the class and copies down the answers into his exam sheet
+d) Colludes with his friend who is sitting for the same test by searching for answers using his friends phone</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2:00PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2:02PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2:05PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>Imagine if you have 50 types of species called ouhjhjhjhjhj and after a meteor weighting 600 tonnes dropped onto the surface causing 70% of ouhjhjhjhjhj to go extinct, how many types are left if in the subsequent 20 years 20% of the extinct types come back miraculously but for each and every year a type of ouhjhjhjhjhj goes extinct but 2 new types are discovered. How many unique types of ouhjhjhjhjhj do we have 30 years later?</t>
+  </si>
+  <si>
+    <t>If Ben works on Monday it implies that he is working everyday for the rest of the week except Sundays, and Jane works Tuesday and every other day for the week, how many days can Ben work with Jane in a week if he works on Monday?</t>
+  </si>
+  <si>
+    <t>1 Day (Monday)</t>
+  </si>
+  <si>
+    <t>3 Days (Tuesday, Thursday, Saturday)</t>
+  </si>
+  <si>
+    <t>2:25PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>2:26PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>2 Days (Tuesday, Wednesday)</t>
+  </si>
+  <si>
+    <t>2:27PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>If Jane's birthday is before me, Jacks birthday is after me and Julie's birthday is after Jack's which birthday is next if we just celebrated Julie's birthday?</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>2:54PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>2:57PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>2:56PM 29/3/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Andy got a car from the Ferrari dealer for $100,000 fully using bank loan with an interest of 3% p.a  and wishes to pay back with a quarterly payment of $30,000, how many years will it take for him to pay it back fully </t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>9 Years</t>
+  </si>
+  <si>
+    <t>33.3 Years</t>
+  </si>
+  <si>
+    <t>3:01PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>3:02PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>3:06PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>3:08PM 29/3/2024</t>
+  </si>
+  <si>
+    <t>3:10PM 29/3/2024</t>
   </si>
 </sst>
 </file>
@@ -146,10 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -160,6 +256,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -180,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -326,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,18 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067B2C-016F-B641-A518-515D2BE2029D}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
@@ -496,7 +598,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,83 +614,177 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="341" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>